--- a/biology/Biochimie/Stéroïde_sexuel/Stéroïde_sexuel.xlsx
+++ b/biology/Biochimie/Stéroïde_sexuel/Stéroïde_sexuel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St%C3%A9ro%C3%AFde_sexuel</t>
+          <t>Stéroïde_sexuel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un stéroïde sexuel est une hormone stéroïdienne qui interagit avec les récepteurs des androgènes ou les récepteurs des œstrogènes ou le récepteur de la progestérone chez les vertébrés. Les stéroïdes sexuels naturels sont produits par les gonades (les ovaires ou les testicules), par les glandes surrénales, par conversion d'autres stéroïdes sexuels dans d'autres tissus comme le foie ou le tissu graisseux. 
 Le terme stéroïde sexuel est utilisé comme synonyme de hormone sexuelle. 
